--- a/excel/WinePoint-modified.xlsx
+++ b/excel/WinePoint-modified.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1336" uniqueCount="472">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1344" uniqueCount="481">
   <si>
     <t>winepoint</t>
   </si>
@@ -1843,6 +1843,9 @@
     <t>Lynch Bages 2019</t>
   </si>
   <si>
+    <t>Lynch-Bages-2019.png</t>
+  </si>
+  <si>
     <t>Grand Puy Lacoste</t>
   </si>
   <si>
@@ -1850,6 +1853,9 @@
   </si>
   <si>
     <t>Grand Puy Lac 2019</t>
+  </si>
+  <si>
+    <t>Grand-Puy-Lac-2019.jpeg</t>
   </si>
   <si>
     <t>Chateau Pontet Canet</t>
@@ -1944,7 +1950,7 @@
     <t xml:space="preserve">Croix Ducru Beaucaillou </t>
   </si>
   <si>
-    <t>"La-Croix-Ducru-Beaucaillou"-2019</t>
+    <t>La-Croix-Ducru-Beaucaillou-2019</t>
   </si>
   <si>
     <t>Château Ducru-Beaucaillou 2019</t>
@@ -1959,10 +1965,19 @@
     <t xml:space="preserve"> 14,3%</t>
   </si>
   <si>
+    <t>La-Croix-Ducru-Beaucaillou-2019.jpeg</t>
+  </si>
+  <si>
     <t>Ducru Beaucaillou</t>
   </si>
   <si>
     <t>98 Suckling, 96+ Robert Parker, 98 Vinous</t>
+  </si>
+  <si>
+    <t>Ducru-Beaucaillou-2020</t>
+  </si>
+  <si>
+    <t>Ducru-Beaucaillou-2020.jpeg</t>
   </si>
   <si>
     <t>Branaire Ducru</t>
@@ -2007,6 +2022,9 @@
     <t>Léoville Poyferré 2019</t>
   </si>
   <si>
+    <t>Léoville-Poyferré-2019.jpeg</t>
+  </si>
+  <si>
     <t>Langoa Barton</t>
   </si>
   <si>
@@ -2016,6 +2034,9 @@
     <t>Langoa Barton 2019</t>
   </si>
   <si>
+    <t>Langoa-Barton-2019.jpeg</t>
+  </si>
+  <si>
     <t>Léoville Barton</t>
   </si>
   <si>
@@ -2025,6 +2046,9 @@
     <t>Léoville Barton 2019</t>
   </si>
   <si>
+    <t>Léoville-Barton-2019.jpeg</t>
+  </si>
+  <si>
     <t>Chateau D'Yquem</t>
   </si>
   <si>
@@ -2044,6 +2068,9 @@
   </si>
   <si>
     <t>dulce</t>
+  </si>
+  <si>
+    <t>Chateau-D'Yquem-2003.jpeg</t>
   </si>
   <si>
     <t>am folosit tabelul asta ca sa gasesc numele potrivit pt vin</t>
@@ -3401,8 +3428,8 @@
   <sheetPr/>
   <dimension ref="A1:BZ91"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" zoomScaleSheetLayoutView="60" topLeftCell="F31" workbookViewId="0">
-      <selection activeCell="AQ47" sqref="AQ47"/>
+    <sheetView tabSelected="1" zoomScale="40" zoomScaleNormal="40" zoomScaleSheetLayoutView="60" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="AR62" sqref="AR62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18"/>
@@ -3788,7 +3815,7 @@
       <c r="AL6" s="32"/>
       <c r="AM6" s="32">
         <f ca="1">RANDBETWEEN(-4,4)+H6</f>
-        <v>3356</v>
+        <v>3362</v>
       </c>
       <c r="AN6" s="32"/>
       <c r="AO6" s="32"/>
@@ -3898,7 +3925,7 @@
       <c r="AL7" s="32"/>
       <c r="AM7" s="32">
         <f ca="1">RANDBETWEEN(-4,4)+H7</f>
-        <v>4493</v>
+        <v>4489</v>
       </c>
       <c r="AN7" s="32"/>
       <c r="AO7" s="32"/>
@@ -4118,7 +4145,7 @@
       <c r="AL9" s="32"/>
       <c r="AM9" s="32">
         <f ca="1">RANDBETWEEN(-4,4)+H9</f>
-        <v>4993</v>
+        <v>4995</v>
       </c>
       <c r="AN9" s="32"/>
       <c r="AO9" s="32"/>
@@ -4228,7 +4255,7 @@
       <c r="AL10" s="32"/>
       <c r="AM10" s="32">
         <f ca="1" t="shared" ref="AM10:AM41" si="0">RANDBETWEEN(-4,4)+H10</f>
-        <v>3988</v>
+        <v>3986</v>
       </c>
       <c r="AN10" s="32"/>
       <c r="AO10" s="32"/>
@@ -4338,7 +4365,7 @@
       <c r="AL11" s="32"/>
       <c r="AM11" s="32">
         <f ca="1" t="shared" si="0"/>
-        <v>2278</v>
+        <v>2284</v>
       </c>
       <c r="AN11" s="32"/>
       <c r="AO11" s="32"/>
@@ -4448,7 +4475,7 @@
       <c r="AL12" s="32"/>
       <c r="AM12" s="32">
         <f ca="1" t="shared" si="0"/>
-        <v>2277</v>
+        <v>2283</v>
       </c>
       <c r="AN12" s="32"/>
       <c r="AO12" s="32"/>
@@ -4558,7 +4585,7 @@
       <c r="AL13" s="32"/>
       <c r="AM13" s="32">
         <f ca="1" t="shared" si="0"/>
-        <v>4101</v>
+        <v>4103</v>
       </c>
       <c r="AN13" s="32"/>
       <c r="AO13" s="32"/>
@@ -4668,7 +4695,7 @@
       <c r="AL14" s="32"/>
       <c r="AM14" s="32">
         <f ca="1" t="shared" si="0"/>
-        <v>2473</v>
+        <v>2474</v>
       </c>
       <c r="AN14" s="32"/>
       <c r="AO14" s="32"/>
@@ -4776,7 +4803,7 @@
       <c r="AL15" s="32"/>
       <c r="AM15" s="32">
         <f ca="1" t="shared" si="0"/>
-        <v>1488</v>
+        <v>1493</v>
       </c>
       <c r="AN15" s="32"/>
       <c r="AO15" s="32"/>
@@ -4884,7 +4911,7 @@
       <c r="AL16" s="32"/>
       <c r="AM16" s="32">
         <f ca="1" t="shared" si="0"/>
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="AN16" s="32"/>
       <c r="AO16" s="32"/>
@@ -4994,7 +5021,7 @@
       <c r="AL17" s="32"/>
       <c r="AM17" s="32">
         <f ca="1" t="shared" si="0"/>
-        <v>723</v>
+        <v>719</v>
       </c>
       <c r="AN17" s="32"/>
       <c r="AO17" s="32"/>
@@ -5104,7 +5131,7 @@
       <c r="AL18" s="32"/>
       <c r="AM18" s="32">
         <f ca="1" t="shared" si="0"/>
-        <v>795</v>
+        <v>799</v>
       </c>
       <c r="AN18" s="32"/>
       <c r="AO18" s="32"/>
@@ -5324,7 +5351,7 @@
       <c r="AL20" s="32"/>
       <c r="AM20" s="32">
         <f ca="1" t="shared" si="0"/>
-        <v>848</v>
+        <v>845</v>
       </c>
       <c r="AN20" s="32"/>
       <c r="AO20" s="32"/>
@@ -5538,7 +5565,7 @@
       <c r="AL22" s="32"/>
       <c r="AM22" s="32">
         <f ca="1" t="shared" si="0"/>
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="AN22" s="32"/>
       <c r="AO22" s="32"/>
@@ -5646,7 +5673,7 @@
       <c r="AL23" s="32"/>
       <c r="AM23" s="32">
         <f ca="1" t="shared" si="0"/>
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="AN23" s="32"/>
       <c r="AO23" s="32"/>
@@ -5754,7 +5781,7 @@
       <c r="AL24" s="32"/>
       <c r="AM24" s="32">
         <f ca="1" t="shared" si="0"/>
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="AN24" s="32"/>
       <c r="AO24" s="32"/>
@@ -5970,7 +5997,7 @@
       <c r="AL26" s="32"/>
       <c r="AM26" s="32">
         <f ca="1" t="shared" si="0"/>
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="AN26" s="32"/>
       <c r="AO26" s="32"/>
@@ -6186,7 +6213,7 @@
       <c r="AL28" s="32"/>
       <c r="AM28" s="32">
         <f ca="1" t="shared" si="0"/>
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="AN28" s="32"/>
       <c r="AO28" s="32"/>
@@ -6292,7 +6319,7 @@
       <c r="AL29" s="32"/>
       <c r="AM29" s="32">
         <f ca="1" t="shared" si="0"/>
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="AN29" s="32"/>
       <c r="AO29" s="32"/>
@@ -6402,7 +6429,7 @@
       <c r="AL30" s="32"/>
       <c r="AM30" s="32">
         <f ca="1" t="shared" si="0"/>
-        <v>1695</v>
+        <v>1692</v>
       </c>
       <c r="AN30" s="32"/>
       <c r="AO30" s="32"/>
@@ -6512,7 +6539,7 @@
       <c r="AL31" s="32"/>
       <c r="AM31" s="32">
         <f ca="1" t="shared" si="0"/>
-        <v>1876</v>
+        <v>1884</v>
       </c>
       <c r="AN31" s="32"/>
       <c r="AO31" s="32"/>
@@ -6618,7 +6645,7 @@
       <c r="AL32" s="32"/>
       <c r="AM32" s="32">
         <f ca="1" t="shared" si="0"/>
-        <v>202</v>
+        <v>195</v>
       </c>
       <c r="AN32" s="32"/>
       <c r="AO32" s="32"/>
@@ -6728,7 +6755,7 @@
       <c r="AL33" s="32"/>
       <c r="AM33" s="32">
         <f ca="1" t="shared" si="0"/>
-        <v>379</v>
+        <v>372</v>
       </c>
       <c r="AN33" s="32"/>
       <c r="AO33" s="32"/>
@@ -6934,7 +6961,7 @@
       <c r="AL35" s="32"/>
       <c r="AM35" s="32">
         <f ca="1" t="shared" si="0"/>
-        <v>391</v>
+        <v>395</v>
       </c>
       <c r="AN35" s="32"/>
       <c r="AO35" s="32"/>
@@ -7033,7 +7060,7 @@
       <c r="AL36" s="32"/>
       <c r="AM36" s="32">
         <f ca="1" t="shared" si="0"/>
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="AN36" s="32"/>
       <c r="AO36" s="32"/>
@@ -7132,7 +7159,7 @@
       <c r="AL37" s="32"/>
       <c r="AM37" s="32">
         <f ca="1" t="shared" si="0"/>
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="AN37" s="32"/>
       <c r="AO37" s="32"/>
@@ -7233,7 +7260,7 @@
       <c r="AL38" s="32"/>
       <c r="AM38" s="32">
         <f ca="1" t="shared" si="0"/>
-        <v>543</v>
+        <v>549</v>
       </c>
       <c r="AN38" s="32"/>
       <c r="AO38" s="32"/>
@@ -7447,7 +7474,7 @@
       <c r="AL40" s="32"/>
       <c r="AM40" s="32">
         <f ca="1" t="shared" si="0"/>
-        <v>642</v>
+        <v>639</v>
       </c>
       <c r="AN40" s="32"/>
       <c r="AO40" s="32"/>
@@ -7556,7 +7583,7 @@
       <c r="AL41" s="32"/>
       <c r="AM41" s="32">
         <f ca="1" t="shared" si="0"/>
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="AN41" s="32"/>
       <c r="AO41" s="32"/>
@@ -7662,7 +7689,7 @@
       <c r="AL42" s="32"/>
       <c r="AM42" s="32">
         <f ca="1" t="shared" ref="AM42:AM60" si="1">RANDBETWEEN(-4,4)+H42</f>
-        <v>1665</v>
+        <v>1666</v>
       </c>
       <c r="AN42" s="32"/>
       <c r="AO42" s="32"/>
@@ -7801,7 +7828,7 @@
       <c r="AL43" s="32"/>
       <c r="AM43" s="32">
         <f ca="1" t="shared" si="1"/>
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="AN43" s="32"/>
       <c r="AO43" s="32"/>
@@ -8038,7 +8065,7 @@
       <c r="AL45" s="32"/>
       <c r="AM45" s="32">
         <f ca="1" t="shared" si="1"/>
-        <v>883</v>
+        <v>879</v>
       </c>
       <c r="AN45" s="32"/>
       <c r="AO45" s="32"/>
@@ -8171,7 +8198,7 @@
       <c r="AL46" s="32"/>
       <c r="AM46" s="32">
         <f ca="1" t="shared" si="1"/>
-        <v>549</v>
+        <v>551</v>
       </c>
       <c r="AN46" s="32"/>
       <c r="AO46" s="32"/>
@@ -8275,7 +8302,7 @@
       <c r="AL47" s="32"/>
       <c r="AM47" s="32">
         <f ca="1" t="shared" si="1"/>
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="AN47" s="32"/>
       <c r="AO47" s="32"/>
@@ -8371,7 +8398,7 @@
       <c r="AL48" s="32"/>
       <c r="AM48" s="32">
         <f ca="1" t="shared" si="1"/>
-        <v>1789</v>
+        <v>1787</v>
       </c>
       <c r="AN48" s="32"/>
       <c r="AO48" s="32"/>
@@ -8508,7 +8535,7 @@
       <c r="AL49" s="32"/>
       <c r="AM49" s="32">
         <f ca="1" t="shared" si="1"/>
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="AN49" s="32"/>
       <c r="AO49" s="32"/>
@@ -8609,20 +8636,22 @@
       <c r="AL50" s="32"/>
       <c r="AM50" s="32">
         <f ca="1" t="shared" si="1"/>
-        <v>839</v>
+        <v>843</v>
       </c>
       <c r="AN50" s="32"/>
       <c r="AO50" s="32"/>
       <c r="AP50" s="41" t="s">
         <v>67</v>
       </c>
-      <c r="AQ50" s="32"/>
+      <c r="AQ50" s="32" t="s">
+        <v>411</v>
+      </c>
       <c r="AR50" s="32"/>
       <c r="AS50" s="32"/>
     </row>
     <row r="51" s="6" customFormat="1" ht="24" customHeight="1" spans="1:52">
       <c r="A51" s="14" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="B51" s="17" t="s">
         <v>45</v>
@@ -8634,7 +8663,7 @@
         <v>428.4</v>
       </c>
       <c r="E51" s="24" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="F51" s="25">
         <v>0.1</v>
@@ -8650,13 +8679,13 @@
         <v>Grand-Puy-Lac-2019</v>
       </c>
       <c r="J51" s="35" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="K51" s="35" t="s">
         <v>54</v>
       </c>
       <c r="L51" s="34" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="M51" s="31" t="s">
         <v>56</v>
@@ -8706,14 +8735,16 @@
       <c r="AL51" s="32"/>
       <c r="AM51" s="32">
         <f ca="1" t="shared" si="1"/>
-        <v>463</v>
+        <v>467</v>
       </c>
       <c r="AN51" s="32"/>
       <c r="AO51" s="32"/>
       <c r="AP51" s="41" t="s">
         <v>67</v>
       </c>
-      <c r="AQ51" s="32"/>
+      <c r="AQ51" s="32" t="s">
+        <v>415</v>
+      </c>
       <c r="AR51" s="32"/>
       <c r="AS51" s="32"/>
       <c r="AT51"/>
@@ -8726,7 +8757,7 @@
     </row>
     <row r="52" s="6" customFormat="1" ht="24" customHeight="1" spans="1:78">
       <c r="A52" s="14" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="B52" s="17" t="s">
         <v>45</v>
@@ -8738,7 +8769,7 @@
         <v>833</v>
       </c>
       <c r="E52" s="24" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="F52" s="25">
         <v>0.15</v>
@@ -8750,16 +8781,16 @@
         <v>890</v>
       </c>
       <c r="I52" s="35" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="J52" s="35" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="K52" s="35" t="s">
         <v>54</v>
       </c>
       <c r="L52" s="35" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="M52" s="31" t="s">
         <v>56</v>
@@ -8815,7 +8846,7 @@
       <c r="AL52" s="32"/>
       <c r="AM52" s="32">
         <f ca="1" t="shared" si="1"/>
-        <v>893</v>
+        <v>894</v>
       </c>
       <c r="AN52" s="32"/>
       <c r="AO52" s="32"/>
@@ -8823,13 +8854,13 @@
         <v>67</v>
       </c>
       <c r="AQ52" s="31" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="AR52" s="31" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="AS52" s="31" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="AT52"/>
       <c r="AU52"/>
@@ -8867,7 +8898,7 @@
     </row>
     <row r="53" ht="24" customHeight="1" spans="1:52">
       <c r="A53" s="14" t="s">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="B53" s="17" t="s">
         <v>45</v>
@@ -8879,7 +8910,7 @@
         <v>267.75</v>
       </c>
       <c r="E53" s="24" t="s">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="F53" s="25">
         <v>0.15</v>
@@ -8891,16 +8922,16 @@
         <v>285</v>
       </c>
       <c r="I53" s="31" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="J53" s="31" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="K53" s="32" t="s">
         <v>54</v>
       </c>
       <c r="L53" s="31" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="M53" s="31" t="s">
         <v>56</v>
@@ -8909,7 +8940,7 @@
         <v>57</v>
       </c>
       <c r="O53" s="32" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="P53" s="31" t="s">
         <v>90</v>
@@ -8944,7 +8975,7 @@
       <c r="AB53" s="32"/>
       <c r="AC53" s="32"/>
       <c r="AD53" s="40" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="AE53" s="40">
         <v>94</v>
@@ -8958,7 +8989,7 @@
       <c r="AL53" s="32"/>
       <c r="AM53" s="32">
         <f ca="1" t="shared" si="1"/>
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="AN53" s="32"/>
       <c r="AO53" s="32"/>
@@ -8966,13 +8997,13 @@
         <v>67</v>
       </c>
       <c r="AQ53" s="31" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="AR53" s="31" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="AS53" s="31" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="AT53" s="6"/>
       <c r="AU53" s="6"/>
@@ -8984,7 +9015,7 @@
     </row>
     <row r="54" ht="24" customHeight="1" spans="1:78">
       <c r="A54" s="14" t="s">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="B54" s="17" t="s">
         <v>45</v>
@@ -9008,16 +9039,16 @@
         <v>285</v>
       </c>
       <c r="I54" s="31" t="s">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="J54" s="31" t="s">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="K54" s="32" t="s">
         <v>54</v>
       </c>
       <c r="L54" s="31" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="M54" s="31" t="s">
         <v>56</v>
@@ -9026,10 +9057,10 @@
         <v>57</v>
       </c>
       <c r="O54" s="32" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="P54" s="31" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="Q54" s="32" t="s">
         <v>60</v>
@@ -9042,7 +9073,7 @@
         <v>61</v>
       </c>
       <c r="U54" s="31" t="s">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="V54" s="31" t="s">
         <v>63</v>
@@ -9080,7 +9111,9 @@
       <c r="AP54" s="41" t="s">
         <v>67</v>
       </c>
-      <c r="AQ54" s="32"/>
+      <c r="AQ54" s="32" t="s">
+        <v>440</v>
+      </c>
       <c r="AR54" s="32"/>
       <c r="AS54" s="32"/>
       <c r="AT54" s="6"/>
@@ -9119,7 +9152,7 @@
     </row>
     <row r="55" s="6" customFormat="1" ht="24" customHeight="1" spans="1:45">
       <c r="A55" s="14" t="s">
-        <v>438</v>
+        <v>441</v>
       </c>
       <c r="B55" s="17" t="s">
         <v>45</v>
@@ -9131,7 +9164,7 @@
         <v>1094.8</v>
       </c>
       <c r="E55" s="24" t="s">
-        <v>439</v>
+        <v>442</v>
       </c>
       <c r="F55" s="25">
         <v>0.1</v>
@@ -9143,16 +9176,16 @@
         <v>1150</v>
       </c>
       <c r="I55" s="31" t="s">
-        <v>433</v>
+        <v>443</v>
       </c>
       <c r="J55" s="31" t="s">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="K55" s="32" t="s">
         <v>54</v>
       </c>
       <c r="L55" s="31" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="M55" s="31" t="s">
         <v>56</v>
@@ -9161,10 +9194,10 @@
         <v>57</v>
       </c>
       <c r="O55" s="32" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="P55" s="31" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="Q55" s="32" t="s">
         <v>60</v>
@@ -9177,7 +9210,7 @@
         <v>61</v>
       </c>
       <c r="U55" s="31" t="s">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="V55" s="31" t="s">
         <v>63</v>
@@ -9210,20 +9243,22 @@
       <c r="AL55" s="32"/>
       <c r="AM55" s="32">
         <f ca="1" t="shared" si="1"/>
-        <v>1150</v>
+        <v>1146</v>
       </c>
       <c r="AN55" s="32"/>
       <c r="AO55" s="32"/>
       <c r="AP55" s="41" t="s">
         <v>67</v>
       </c>
-      <c r="AQ55" s="32"/>
+      <c r="AQ55" s="32" t="s">
+        <v>444</v>
+      </c>
       <c r="AR55" s="32"/>
       <c r="AS55" s="32"/>
     </row>
     <row r="56" s="6" customFormat="1" ht="24" customHeight="1" spans="1:45">
       <c r="A56" s="14" t="s">
-        <v>440</v>
+        <v>445</v>
       </c>
       <c r="B56" s="17" t="s">
         <v>45</v>
@@ -9235,7 +9270,7 @@
         <v>321.3</v>
       </c>
       <c r="E56" s="24" t="s">
-        <v>441</v>
+        <v>446</v>
       </c>
       <c r="F56" s="25">
         <v>0.15</v>
@@ -9251,13 +9286,13 @@
         <v>Branaire-Ducru-2019</v>
       </c>
       <c r="J56" s="32" t="s">
-        <v>442</v>
+        <v>447</v>
       </c>
       <c r="K56" s="32" t="s">
         <v>54</v>
       </c>
       <c r="L56" s="34" t="s">
-        <v>440</v>
+        <v>445</v>
       </c>
       <c r="M56" s="31" t="s">
         <v>56</v>
@@ -9266,7 +9301,7 @@
         <v>57</v>
       </c>
       <c r="O56" s="32" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="P56" s="32"/>
       <c r="Q56" s="32" t="s">
@@ -9307,7 +9342,7 @@
       <c r="AL56" s="32"/>
       <c r="AM56" s="32">
         <f ca="1" t="shared" si="1"/>
-        <v>348</v>
+        <v>341</v>
       </c>
       <c r="AN56" s="32"/>
       <c r="AO56" s="32"/>
@@ -9315,18 +9350,18 @@
         <v>67</v>
       </c>
       <c r="AQ56" s="31" t="s">
-        <v>443</v>
+        <v>448</v>
       </c>
       <c r="AR56" s="31" t="s">
-        <v>444</v>
+        <v>449</v>
       </c>
       <c r="AS56" s="31" t="s">
-        <v>445</v>
+        <v>450</v>
       </c>
     </row>
     <row r="57" s="6" customFormat="1" ht="24" customHeight="1" spans="1:52">
       <c r="A57" s="14" t="s">
-        <v>446</v>
+        <v>451</v>
       </c>
       <c r="B57" s="17" t="s">
         <v>45</v>
@@ -9338,7 +9373,7 @@
         <v>654.5</v>
       </c>
       <c r="E57" s="24" t="s">
-        <v>447</v>
+        <v>452</v>
       </c>
       <c r="F57" s="25">
         <v>0.1</v>
@@ -9354,13 +9389,13 @@
         <v>Léoville-Poyferré-2019</v>
       </c>
       <c r="J57" s="32" t="s">
-        <v>448</v>
+        <v>453</v>
       </c>
       <c r="K57" s="32" t="s">
         <v>54</v>
       </c>
       <c r="L57" s="34" t="s">
-        <v>446</v>
+        <v>451</v>
       </c>
       <c r="M57" s="31" t="s">
         <v>56</v>
@@ -9369,7 +9404,7 @@
         <v>57</v>
       </c>
       <c r="O57" s="32" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="P57" s="32"/>
       <c r="Q57" s="32" t="s">
@@ -9410,14 +9445,16 @@
       <c r="AL57" s="32"/>
       <c r="AM57" s="32">
         <f ca="1" t="shared" si="1"/>
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="AN57" s="32"/>
       <c r="AO57" s="32"/>
       <c r="AP57" s="41" t="s">
         <v>67</v>
       </c>
-      <c r="AQ57" s="32"/>
+      <c r="AQ57" s="32" t="s">
+        <v>454</v>
+      </c>
       <c r="AR57" s="32"/>
       <c r="AS57" s="32"/>
       <c r="AT57"/>
@@ -9430,7 +9467,7 @@
     </row>
     <row r="58" s="6" customFormat="1" ht="24" customHeight="1" spans="1:58">
       <c r="A58" s="14" t="s">
-        <v>449</v>
+        <v>455</v>
       </c>
       <c r="B58" s="17" t="s">
         <v>45</v>
@@ -9442,7 +9479,7 @@
         <v>309.4</v>
       </c>
       <c r="E58" s="24" t="s">
-        <v>450</v>
+        <v>456</v>
       </c>
       <c r="F58" s="25">
         <v>0.15</v>
@@ -9458,13 +9495,13 @@
         <v>Langoa-Barton-2019</v>
       </c>
       <c r="J58" s="32" t="s">
-        <v>451</v>
+        <v>457</v>
       </c>
       <c r="K58" s="32" t="s">
         <v>54</v>
       </c>
       <c r="L58" s="34" t="s">
-        <v>449</v>
+        <v>455</v>
       </c>
       <c r="M58" s="31" t="s">
         <v>56</v>
@@ -9473,7 +9510,7 @@
         <v>57</v>
       </c>
       <c r="O58" s="32" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="P58" s="32"/>
       <c r="Q58" s="32" t="s">
@@ -9514,14 +9551,16 @@
       <c r="AL58" s="32"/>
       <c r="AM58" s="32">
         <f ca="1" t="shared" si="1"/>
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="AN58" s="32"/>
       <c r="AO58" s="32"/>
       <c r="AP58" s="41" t="s">
         <v>67</v>
       </c>
-      <c r="AQ58" s="32"/>
+      <c r="AQ58" s="32" t="s">
+        <v>458</v>
+      </c>
       <c r="AR58" s="32"/>
       <c r="AS58" s="32"/>
       <c r="AT58"/>
@@ -9540,7 +9579,7 @@
     </row>
     <row r="59" s="6" customFormat="1" ht="24" customHeight="1" spans="1:78">
       <c r="A59" s="14" t="s">
-        <v>452</v>
+        <v>459</v>
       </c>
       <c r="B59" s="17" t="s">
         <v>45</v>
@@ -9552,7 +9591,7 @@
         <v>595</v>
       </c>
       <c r="E59" s="24" t="s">
-        <v>453</v>
+        <v>460</v>
       </c>
       <c r="F59" s="25">
         <v>0.1</v>
@@ -9568,13 +9607,13 @@
         <v>Léoville-Barton-2019</v>
       </c>
       <c r="J59" s="32" t="s">
-        <v>454</v>
+        <v>461</v>
       </c>
       <c r="K59" s="32" t="s">
         <v>54</v>
       </c>
       <c r="L59" s="34" t="s">
-        <v>452</v>
+        <v>459</v>
       </c>
       <c r="M59" s="31" t="s">
         <v>56</v>
@@ -9583,7 +9622,7 @@
         <v>57</v>
       </c>
       <c r="O59" s="32" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="P59" s="32"/>
       <c r="Q59" s="32" t="s">
@@ -9624,14 +9663,16 @@
       <c r="AL59" s="32"/>
       <c r="AM59" s="32">
         <f ca="1" t="shared" si="1"/>
-        <v>643</v>
+        <v>636</v>
       </c>
       <c r="AN59" s="32"/>
       <c r="AO59" s="32"/>
       <c r="AP59" s="41" t="s">
         <v>67</v>
       </c>
-      <c r="AQ59" s="32"/>
+      <c r="AQ59" s="32" t="s">
+        <v>462</v>
+      </c>
       <c r="AR59" s="32"/>
       <c r="AS59" s="32"/>
       <c r="AT59"/>
@@ -9670,10 +9711,10 @@
     </row>
     <row r="60" ht="24" customHeight="1" spans="1:45">
       <c r="A60" s="19" t="s">
-        <v>455</v>
+        <v>463</v>
       </c>
       <c r="B60" s="17" t="s">
-        <v>456</v>
+        <v>464</v>
       </c>
       <c r="C60" s="15">
         <v>1770</v>
@@ -9682,7 +9723,7 @@
         <v>2106.3</v>
       </c>
       <c r="E60" s="24" t="s">
-        <v>457</v>
+        <v>465</v>
       </c>
       <c r="F60" s="25">
         <v>0.1</v>
@@ -9698,13 +9739,13 @@
         <v>Chateau-D'Yquem-2003</v>
       </c>
       <c r="J60" s="32" t="s">
-        <v>458</v>
+        <v>466</v>
       </c>
       <c r="K60" s="32" t="s">
         <v>54</v>
       </c>
       <c r="L60" s="36" t="s">
-        <v>455</v>
+        <v>463</v>
       </c>
       <c r="M60" s="31" t="s">
         <v>56</v>
@@ -9713,18 +9754,18 @@
         <v>57</v>
       </c>
       <c r="O60" s="32" t="s">
-        <v>459</v>
+        <v>467</v>
       </c>
       <c r="P60" s="32"/>
       <c r="Q60" s="32" t="s">
-        <v>460</v>
+        <v>468</v>
       </c>
       <c r="R60" s="32" t="s">
         <v>54</v>
       </c>
       <c r="S60" s="32"/>
       <c r="T60" s="32" t="s">
-        <v>461</v>
+        <v>469</v>
       </c>
       <c r="U60" s="32"/>
       <c r="V60" s="31" t="s">
@@ -9754,14 +9795,16 @@
       <c r="AL60" s="32"/>
       <c r="AM60" s="32">
         <f ca="1" t="shared" si="1"/>
-        <v>2248</v>
+        <v>2250</v>
       </c>
       <c r="AN60" s="32"/>
       <c r="AO60" s="32"/>
       <c r="AP60" s="41" t="s">
         <v>67</v>
       </c>
-      <c r="AQ60" s="32"/>
+      <c r="AQ60" s="32" t="s">
+        <v>470</v>
+      </c>
       <c r="AR60" s="32"/>
       <c r="AS60" s="32"/>
     </row>
@@ -9910,7 +9953,7 @@
   <sheetData>
     <row r="1" ht="15" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>462</v>
+        <v>471</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -10263,7 +10306,7 @@
         <v>182</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>463</v>
+        <v>472</v>
       </c>
       <c r="C21" s="1" t="str">
         <f t="shared" si="0"/>
@@ -10323,7 +10366,7 @@
         <v>45</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>464</v>
+        <v>473</v>
       </c>
       <c r="C24" s="1" t="str">
         <f t="shared" si="0"/>
@@ -10343,7 +10386,7 @@
         <v>45</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>465</v>
+        <v>474</v>
       </c>
       <c r="C25" s="1" t="str">
         <f t="shared" si="0"/>
@@ -10363,7 +10406,7 @@
         <v>45</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>466</v>
+        <v>475</v>
       </c>
       <c r="C26" s="1" t="str">
         <f t="shared" si="0"/>
@@ -10383,7 +10426,7 @@
         <v>45</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>467</v>
+        <v>476</v>
       </c>
       <c r="C27" s="1" t="str">
         <f t="shared" si="0"/>
@@ -10403,7 +10446,7 @@
         <v>133</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>468</v>
+        <v>477</v>
       </c>
       <c r="C28" s="1" t="str">
         <f t="shared" si="0"/>
@@ -10483,7 +10526,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>469</v>
+        <v>478</v>
       </c>
       <c r="C32" s="1" t="str">
         <f t="shared" si="0"/>
@@ -10618,7 +10661,7 @@
         <v>45</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>470</v>
+        <v>479</v>
       </c>
       <c r="C39" s="1" t="str">
         <f t="shared" si="0"/>
@@ -10847,7 +10890,7 @@
         <v>45</v>
       </c>
       <c r="B51" s="5" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="C51" s="1" t="str">
         <f t="shared" si="0"/>
@@ -10867,7 +10910,7 @@
         <v>45</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>471</v>
+        <v>480</v>
       </c>
       <c r="C52" s="1" t="str">
         <f t="shared" si="0"/>
@@ -10887,7 +10930,7 @@
         <v>45</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="C53" s="1" t="str">
         <f t="shared" si="0"/>
@@ -10907,7 +10950,7 @@
         <v>45</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="C54" s="1" t="str">
         <f t="shared" si="0"/>
@@ -10927,7 +10970,7 @@
         <v>45</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="C55" s="1" t="str">
         <f t="shared" si="0"/>
@@ -10947,14 +10990,14 @@
         <v>45</v>
       </c>
       <c r="B56" s="5" t="s">
-        <v>440</v>
+        <v>445</v>
       </c>
       <c r="C56" s="1" t="str">
         <f t="shared" si="0"/>
         <v>2019</v>
       </c>
       <c r="D56" s="5" t="s">
-        <v>440</v>
+        <v>445</v>
       </c>
       <c r="E56" s="1" t="str">
         <f t="shared" si="2"/>
@@ -10966,14 +11009,14 @@
         <v>45</v>
       </c>
       <c r="B57" s="5" t="s">
-        <v>446</v>
+        <v>451</v>
       </c>
       <c r="C57" s="1" t="str">
         <f t="shared" si="0"/>
         <v>2019</v>
       </c>
       <c r="D57" s="5" t="s">
-        <v>446</v>
+        <v>451</v>
       </c>
       <c r="E57" s="1" t="str">
         <f t="shared" si="2"/>
@@ -10985,14 +11028,14 @@
         <v>45</v>
       </c>
       <c r="B58" s="5" t="s">
-        <v>449</v>
+        <v>455</v>
       </c>
       <c r="C58" s="1" t="str">
         <f t="shared" si="0"/>
         <v>2019</v>
       </c>
       <c r="D58" s="5" t="s">
-        <v>449</v>
+        <v>455</v>
       </c>
       <c r="E58" s="1" t="str">
         <f t="shared" si="2"/>
@@ -11004,14 +11047,14 @@
         <v>45</v>
       </c>
       <c r="B59" s="5" t="s">
-        <v>452</v>
+        <v>459</v>
       </c>
       <c r="C59" s="1" t="str">
         <f t="shared" si="0"/>
         <v>2019</v>
       </c>
       <c r="D59" s="5" t="s">
-        <v>452</v>
+        <v>459</v>
       </c>
       <c r="E59" s="1" t="str">
         <f t="shared" si="2"/>
@@ -11020,17 +11063,17 @@
     </row>
     <row r="60" ht="15.75" spans="1:5">
       <c r="A60" s="2" t="s">
-        <v>456</v>
+        <v>464</v>
       </c>
       <c r="B60" s="5" t="s">
-        <v>455</v>
+        <v>463</v>
       </c>
       <c r="C60" s="1" t="str">
         <f t="shared" si="0"/>
         <v>2003</v>
       </c>
       <c r="D60" s="5" t="s">
-        <v>455</v>
+        <v>463</v>
       </c>
       <c r="E60" s="1" t="str">
         <f t="shared" si="2"/>
